--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Cmklr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H2">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I2">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J2">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.03673</v>
+        <v>0.7711026666666667</v>
       </c>
       <c r="N2">
-        <v>6.11019</v>
+        <v>2.313308</v>
       </c>
       <c r="O2">
-        <v>0.01936773727681929</v>
+        <v>0.009058781415982611</v>
       </c>
       <c r="P2">
-        <v>0.01936773727681929</v>
+        <v>0.009058781415982613</v>
       </c>
       <c r="Q2">
-        <v>0.7483550249899998</v>
+        <v>3.498118813873334</v>
       </c>
       <c r="R2">
-        <v>6.735195224909999</v>
+        <v>31.48306932486</v>
       </c>
       <c r="S2">
-        <v>0.0001334889059685788</v>
+        <v>0.0007226813740574858</v>
       </c>
       <c r="T2">
-        <v>0.0001334889059685788</v>
+        <v>0.000722681374057486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H3">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I3">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J3">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.985979</v>
       </c>
       <c r="O3">
-        <v>0.0570109466216908</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="P3">
-        <v>0.0570109466216908</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="Q3">
-        <v>2.202860756214555</v>
+        <v>27.19788784106167</v>
       </c>
       <c r="R3">
-        <v>19.825746805931</v>
+        <v>244.780990569555</v>
       </c>
       <c r="S3">
-        <v>0.0003929384617309499</v>
+        <v>0.005618850588632852</v>
       </c>
       <c r="T3">
-        <v>0.0003929384617309498</v>
+        <v>0.005618850588632852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H4">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I4">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J4">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.18044800000001</v>
+        <v>41.98397066666667</v>
       </c>
       <c r="N4">
-        <v>132.541344</v>
+        <v>125.951912</v>
       </c>
       <c r="O4">
-        <v>0.4201221122270385</v>
+        <v>0.4932204616648874</v>
       </c>
       <c r="P4">
-        <v>0.4201221122270385</v>
+        <v>0.4932204616648875</v>
       </c>
       <c r="Q4">
-        <v>16.233207281824</v>
+        <v>190.4609126888934</v>
       </c>
       <c r="R4">
-        <v>146.098865536416</v>
+        <v>1714.14821420004</v>
       </c>
       <c r="S4">
-        <v>0.002895621741085802</v>
+        <v>0.03934759263761139</v>
       </c>
       <c r="T4">
-        <v>0.002895621741085801</v>
+        <v>0.03934759263761141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H5">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I5">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J5">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45041</v>
+        <v>5.935495</v>
       </c>
       <c r="N5">
-        <v>4.35123</v>
+        <v>17.806485</v>
       </c>
       <c r="O5">
-        <v>0.01379228460506373</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="P5">
-        <v>0.01379228460506374</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="Q5">
-        <v>0.5329236628299999</v>
+        <v>26.926462099925</v>
       </c>
       <c r="R5">
-        <v>4.796312965469999</v>
+        <v>242.338158899325</v>
       </c>
       <c r="S5">
-        <v>9.506102630485452E-05</v>
+        <v>0.005562776356167883</v>
       </c>
       <c r="T5">
-        <v>9.506102630485452E-05</v>
+        <v>0.005562776356167884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3674296666666666</v>
+        <v>4.536515000000001</v>
       </c>
       <c r="H6">
-        <v>1.102289</v>
+        <v>13.609545</v>
       </c>
       <c r="I6">
-        <v>0.00689233357829301</v>
+        <v>0.07977688619160661</v>
       </c>
       <c r="J6">
-        <v>0.006892333578293009</v>
+        <v>0.07977688619160662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,43 +809,43 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.982920666666665</v>
+        <v>30.436224</v>
       </c>
       <c r="N6">
-        <v>23.94876199999999</v>
+        <v>91.308672</v>
       </c>
       <c r="O6">
-        <v>0.07591144146435268</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="P6">
-        <v>0.07591144146435269</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="Q6">
-        <v>2.933161879579777</v>
+        <v>138.07438671936</v>
       </c>
       <c r="R6">
-        <v>26.39845691621799</v>
+        <v>1242.66948047424</v>
       </c>
       <c r="S6">
-        <v>0.0005232069769813823</v>
+        <v>0.02852498523513699</v>
       </c>
       <c r="T6">
-        <v>0.0005232069769813822</v>
+        <v>0.028524985235137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3674296666666666</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H7">
-        <v>1.102289</v>
+        <v>132.735371</v>
       </c>
       <c r="I7">
-        <v>0.00689233357829301</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J7">
-        <v>0.006892333578293009</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>43.515133</v>
+        <v>0.7711026666666667</v>
       </c>
       <c r="N7">
-        <v>130.545399</v>
+        <v>2.313308</v>
       </c>
       <c r="O7">
-        <v>0.4137954778050351</v>
+        <v>0.009058781415982611</v>
       </c>
       <c r="P7">
-        <v>0.4137954778050351</v>
+        <v>0.009058781415982613</v>
       </c>
       <c r="Q7">
-        <v>15.98875081314566</v>
+        <v>34.11753284636311</v>
       </c>
       <c r="R7">
-        <v>143.898757318311</v>
+        <v>307.057795617268</v>
       </c>
       <c r="S7">
-        <v>0.002852016466221443</v>
+        <v>0.007048389957218271</v>
       </c>
       <c r="T7">
-        <v>0.002852016466221443</v>
+        <v>0.007048389957218273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J8">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.03673</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N8">
-        <v>6.11019</v>
+        <v>17.985979</v>
       </c>
       <c r="O8">
-        <v>0.01936773727681929</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="P8">
-        <v>0.01936773727681929</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="Q8">
-        <v>90.11537072560999</v>
+        <v>265.2639550403566</v>
       </c>
       <c r="R8">
-        <v>811.0383365304899</v>
+        <v>2387.375595363209</v>
       </c>
       <c r="S8">
-        <v>0.01607445911020016</v>
+        <v>0.05480126025342874</v>
       </c>
       <c r="T8">
-        <v>0.01607445911020015</v>
+        <v>0.05480126025342875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J9">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.995326333333334</v>
+        <v>41.98397066666667</v>
       </c>
       <c r="N9">
-        <v>17.985979</v>
+        <v>125.951912</v>
       </c>
       <c r="O9">
-        <v>0.0570109466216908</v>
+        <v>0.4932204616648874</v>
       </c>
       <c r="P9">
-        <v>0.0570109466216908</v>
+        <v>0.4932204616648875</v>
       </c>
       <c r="Q9">
-        <v>265.2639550403566</v>
+        <v>1857.585974164373</v>
       </c>
       <c r="R9">
-        <v>2387.375595363209</v>
+        <v>16718.27376747935</v>
       </c>
       <c r="S9">
-        <v>0.04731684022795016</v>
+        <v>0.3837613459311253</v>
       </c>
       <c r="T9">
-        <v>0.04731684022795014</v>
+        <v>0.3837613459311254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J10">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.18044800000001</v>
+        <v>5.935495</v>
       </c>
       <c r="N10">
-        <v>132.541344</v>
+        <v>17.806485</v>
       </c>
       <c r="O10">
-        <v>0.4201221122270385</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="P10">
-        <v>0.4201221122270385</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="Q10">
-        <v>1954.769385408736</v>
+        <v>262.6167102978817</v>
       </c>
       <c r="R10">
-        <v>17592.92446867862</v>
+        <v>2363.550392680935</v>
       </c>
       <c r="S10">
-        <v>0.3486848059616761</v>
+        <v>0.05425436217198826</v>
       </c>
       <c r="T10">
-        <v>0.3486848059616759</v>
+        <v>0.05425436217198826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>132.735371</v>
       </c>
       <c r="I11">
-        <v>0.8299606133876691</v>
+        <v>0.7780726384216136</v>
       </c>
       <c r="J11">
-        <v>0.8299606133876688</v>
+        <v>0.7780726384216137</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.45041</v>
+        <v>30.436224</v>
       </c>
       <c r="N11">
-        <v>4.35123</v>
+        <v>91.308672</v>
       </c>
       <c r="O11">
-        <v>0.01379228460506373</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="P11">
-        <v>0.01379228460506374</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="Q11">
-        <v>64.17356981736999</v>
+        <v>1346.654494826368</v>
       </c>
       <c r="R11">
-        <v>577.5621283563299</v>
+        <v>12119.89045343731</v>
       </c>
       <c r="S11">
-        <v>0.011447052990836</v>
+        <v>0.278207280107853</v>
       </c>
       <c r="T11">
-        <v>0.011447052990836</v>
+        <v>0.278207280107853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.24512366666666</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H12">
-        <v>132.735371</v>
+        <v>22.79825</v>
       </c>
       <c r="I12">
-        <v>0.8299606133876691</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J12">
-        <v>0.8299606133876688</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.982920666666665</v>
+        <v>0.7711026666666667</v>
       </c>
       <c r="N12">
-        <v>23.94876199999999</v>
+        <v>2.313308</v>
       </c>
       <c r="O12">
-        <v>0.07591144146435268</v>
+        <v>0.009058781415982611</v>
       </c>
       <c r="P12">
-        <v>0.07591144146435269</v>
+        <v>0.009058781415982613</v>
       </c>
       <c r="Q12">
-        <v>353.2053121178557</v>
+        <v>5.859930456777778</v>
       </c>
       <c r="R12">
-        <v>3178.847809060701</v>
+        <v>52.739374111</v>
       </c>
       <c r="S12">
-        <v>0.06300350652089629</v>
+        <v>0.001210611422799665</v>
       </c>
       <c r="T12">
-        <v>0.06300350652089627</v>
+        <v>0.001210611422799666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.24512366666666</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H13">
-        <v>132.735371</v>
+        <v>22.79825</v>
       </c>
       <c r="I13">
-        <v>0.8299606133876691</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J13">
-        <v>0.8299606133876688</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.515133</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N13">
-        <v>130.545399</v>
+        <v>17.985979</v>
       </c>
       <c r="O13">
-        <v>0.4137954778050351</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="P13">
-        <v>0.4137954778050351</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="Q13">
-        <v>1925.332440956447</v>
+        <v>45.56098285963889</v>
       </c>
       <c r="R13">
-        <v>17327.99196860803</v>
+        <v>410.04884573675</v>
       </c>
       <c r="S13">
-        <v>0.3434339485761105</v>
+        <v>0.009412508679187944</v>
       </c>
       <c r="T13">
-        <v>0.3434339485761104</v>
+        <v>0.009412508679187945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H14">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I14">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J14">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.03673</v>
+        <v>41.98397066666667</v>
       </c>
       <c r="N14">
-        <v>6.11019</v>
+        <v>125.951912</v>
       </c>
       <c r="O14">
-        <v>0.01936773727681929</v>
+        <v>0.4932204616648874</v>
       </c>
       <c r="P14">
-        <v>0.01936773727681929</v>
+        <v>0.4932204616648875</v>
       </c>
       <c r="Q14">
-        <v>0.78128012326</v>
+        <v>319.0536864171111</v>
       </c>
       <c r="R14">
-        <v>7.031521109340001</v>
+        <v>2871.483177754</v>
       </c>
       <c r="S14">
-        <v>0.0001393619678178381</v>
+        <v>0.06591375786996728</v>
       </c>
       <c r="T14">
-        <v>0.0001393619678178381</v>
+        <v>0.0659137578699673</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H15">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I15">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J15">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.995326333333334</v>
+        <v>5.935495</v>
       </c>
       <c r="N15">
-        <v>17.985979</v>
+        <v>17.806485</v>
       </c>
       <c r="O15">
-        <v>0.0570109466216908</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="P15">
-        <v>0.0570109466216908</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="Q15">
-        <v>2.299779203277111</v>
+        <v>45.10629962791667</v>
       </c>
       <c r="R15">
-        <v>20.698012829494</v>
+        <v>405.95669665125</v>
       </c>
       <c r="S15">
-        <v>0.000410226429386044</v>
+        <v>0.009318575019370919</v>
       </c>
       <c r="T15">
-        <v>0.0004102264293860439</v>
+        <v>0.009318575019370921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3835953333333333</v>
+        <v>7.599416666666666</v>
       </c>
       <c r="H16">
-        <v>1.150786</v>
+        <v>22.79825</v>
       </c>
       <c r="I16">
-        <v>0.007195573020532276</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="J16">
-        <v>0.007195573020532274</v>
+        <v>0.133639544570946</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>44.18044800000001</v>
+        <v>30.436224</v>
       </c>
       <c r="N16">
-        <v>132.541344</v>
+        <v>91.308672</v>
       </c>
       <c r="O16">
-        <v>0.4201221122270385</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="P16">
-        <v>0.4201221122270385</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="Q16">
-        <v>16.947413677376</v>
+        <v>231.297547936</v>
       </c>
       <c r="R16">
-        <v>152.526723096384</v>
+        <v>2081.677931424</v>
       </c>
       <c r="S16">
-        <v>0.003023019336069912</v>
+        <v>0.04778409157962017</v>
       </c>
       <c r="T16">
-        <v>0.003023019336069911</v>
+        <v>0.04778409157962018</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3835953333333333</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H17">
-        <v>1.150786</v>
+        <v>1.451923</v>
       </c>
       <c r="I17">
-        <v>0.007195573020532276</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J17">
-        <v>0.007195573020532274</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.45041</v>
+        <v>0.7711026666666667</v>
       </c>
       <c r="N17">
-        <v>4.35123</v>
+        <v>2.313308</v>
       </c>
       <c r="O17">
-        <v>0.01379228460506373</v>
+        <v>0.009058781415982611</v>
       </c>
       <c r="P17">
-        <v>0.01379228460506374</v>
+        <v>0.009058781415982613</v>
       </c>
       <c r="Q17">
-        <v>0.55637050742</v>
+        <v>0.3731938990315556</v>
       </c>
       <c r="R17">
-        <v>5.007334566780001</v>
+        <v>3.358745091284</v>
       </c>
       <c r="S17">
-        <v>9.924339099569926E-05</v>
+        <v>7.709866190718843E-05</v>
       </c>
       <c r="T17">
-        <v>9.924339099569926E-05</v>
+        <v>7.709866190718846E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3835953333333333</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H18">
-        <v>1.150786</v>
+        <v>1.451923</v>
       </c>
       <c r="I18">
-        <v>0.007195573020532276</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J18">
-        <v>0.007195573020532274</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.982920666666665</v>
+        <v>5.995326333333334</v>
       </c>
       <c r="N18">
-        <v>23.94876199999999</v>
+        <v>17.985979</v>
       </c>
       <c r="O18">
-        <v>0.07591144146435268</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="P18">
-        <v>0.07591144146435269</v>
+        <v>0.07043206192753128</v>
       </c>
       <c r="Q18">
-        <v>3.062211114103555</v>
+        <v>2.901584065290778</v>
       </c>
       <c r="R18">
-        <v>27.559900026932</v>
+        <v>26.114256587617</v>
       </c>
       <c r="S18">
-        <v>0.0005462263201506112</v>
+        <v>0.0005994424062817365</v>
       </c>
       <c r="T18">
-        <v>0.0005462263201506112</v>
+        <v>0.0005994424062817366</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3835953333333333</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H19">
-        <v>1.150786</v>
+        <v>1.451923</v>
       </c>
       <c r="I19">
-        <v>0.007195573020532276</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J19">
-        <v>0.007195573020532274</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.515133</v>
+        <v>41.98397066666667</v>
       </c>
       <c r="N19">
-        <v>130.545399</v>
+        <v>125.951912</v>
       </c>
       <c r="O19">
-        <v>0.4137954778050351</v>
+        <v>0.4932204616648874</v>
       </c>
       <c r="P19">
-        <v>0.4137954778050351</v>
+        <v>0.4932204616648875</v>
       </c>
       <c r="Q19">
-        <v>16.69220194817933</v>
+        <v>20.31916421408622</v>
       </c>
       <c r="R19">
-        <v>150.229817533614</v>
+        <v>182.872477926776</v>
       </c>
       <c r="S19">
-        <v>0.002977495576112172</v>
+        <v>0.004197765226183436</v>
       </c>
       <c r="T19">
-        <v>0.002977495576112172</v>
+        <v>0.004197765226183437</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H20">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I20">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J20">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.03673</v>
+        <v>5.935495</v>
       </c>
       <c r="N20">
-        <v>6.11019</v>
+        <v>17.806485</v>
       </c>
       <c r="O20">
-        <v>0.01936773727681929</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="P20">
-        <v>0.01936773727681929</v>
+        <v>0.06972917372091099</v>
       </c>
       <c r="Q20">
-        <v>16.93288236807</v>
+        <v>2.872627235628334</v>
       </c>
       <c r="R20">
-        <v>152.39594131263</v>
+        <v>25.853645120655</v>
       </c>
       <c r="S20">
-        <v>0.003020427292832712</v>
+        <v>0.0005934601733839257</v>
       </c>
       <c r="T20">
-        <v>0.003020427292832712</v>
+        <v>0.0005934601733839258</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.313758999999999</v>
+        <v>0.4839743333333333</v>
       </c>
       <c r="H21">
-        <v>24.941277</v>
+        <v>1.451923</v>
       </c>
       <c r="I21">
-        <v>0.1559514800135057</v>
+        <v>0.008510930815833742</v>
       </c>
       <c r="J21">
-        <v>0.1559514800135056</v>
+        <v>0.008510930815833744</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,276 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.995326333333334</v>
+        <v>30.436224</v>
       </c>
       <c r="N21">
-        <v>17.985979</v>
+        <v>91.308672</v>
       </c>
       <c r="O21">
-        <v>0.0570109466216908</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="P21">
-        <v>0.0570109466216908</v>
+        <v>0.3575595212706876</v>
       </c>
       <c r="Q21">
-        <v>49.843698261687</v>
+        <v>14.730351219584</v>
       </c>
       <c r="R21">
-        <v>448.593284355183</v>
+        <v>132.573160976256</v>
       </c>
       <c r="S21">
-        <v>0.00889094150262365</v>
+        <v>0.003043164348077456</v>
       </c>
       <c r="T21">
-        <v>0.008890941502623649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>8.313758999999999</v>
-      </c>
-      <c r="H22">
-        <v>24.941277</v>
-      </c>
-      <c r="I22">
-        <v>0.1559514800135057</v>
-      </c>
-      <c r="J22">
-        <v>0.1559514800135056</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>44.18044800000001</v>
-      </c>
-      <c r="N22">
-        <v>132.541344</v>
-      </c>
-      <c r="O22">
-        <v>0.4201221122270385</v>
-      </c>
-      <c r="P22">
-        <v>0.4201221122270385</v>
-      </c>
-      <c r="Q22">
-        <v>367.305597184032</v>
-      </c>
-      <c r="R22">
-        <v>3305.750374656288</v>
-      </c>
-      <c r="S22">
-        <v>0.06551866518820679</v>
-      </c>
-      <c r="T22">
-        <v>0.06551866518820677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>8.313758999999999</v>
-      </c>
-      <c r="H23">
-        <v>24.941277</v>
-      </c>
-      <c r="I23">
-        <v>0.1559514800135057</v>
-      </c>
-      <c r="J23">
-        <v>0.1559514800135056</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>1.45041</v>
-      </c>
-      <c r="N23">
-        <v>4.35123</v>
-      </c>
-      <c r="O23">
-        <v>0.01379228460506373</v>
-      </c>
-      <c r="P23">
-        <v>0.01379228460506374</v>
-      </c>
-      <c r="Q23">
-        <v>12.05835919119</v>
-      </c>
-      <c r="R23">
-        <v>108.52523272071</v>
-      </c>
-      <c r="S23">
-        <v>0.002150927196927179</v>
-      </c>
-      <c r="T23">
-        <v>0.002150927196927179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>8.313758999999999</v>
-      </c>
-      <c r="H24">
-        <v>24.941277</v>
-      </c>
-      <c r="I24">
-        <v>0.1559514800135057</v>
-      </c>
-      <c r="J24">
-        <v>0.1559514800135056</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>7.982920666666665</v>
-      </c>
-      <c r="N24">
-        <v>23.94876199999999</v>
-      </c>
-      <c r="O24">
-        <v>0.07591144146435268</v>
-      </c>
-      <c r="P24">
-        <v>0.07591144146435269</v>
-      </c>
-      <c r="Q24">
-        <v>66.36807853878598</v>
-      </c>
-      <c r="R24">
-        <v>597.3127068490738</v>
-      </c>
-      <c r="S24">
-        <v>0.0118385016463244</v>
-      </c>
-      <c r="T24">
-        <v>0.0118385016463244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>8.313758999999999</v>
-      </c>
-      <c r="H25">
-        <v>24.941277</v>
-      </c>
-      <c r="I25">
-        <v>0.1559514800135057</v>
-      </c>
-      <c r="J25">
-        <v>0.1559514800135056</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>43.515133</v>
-      </c>
-      <c r="N25">
-        <v>130.545399</v>
-      </c>
-      <c r="O25">
-        <v>0.4137954778050351</v>
-      </c>
-      <c r="P25">
-        <v>0.4137954778050351</v>
-      </c>
-      <c r="Q25">
-        <v>361.774328614947</v>
-      </c>
-      <c r="R25">
-        <v>3255.968957534523</v>
-      </c>
-      <c r="S25">
-        <v>0.06453201718659096</v>
-      </c>
-      <c r="T25">
-        <v>0.06453201718659095</v>
+        <v>0.003043164348077456</v>
       </c>
     </row>
   </sheetData>
